--- a/Files/file.xlsx
+++ b/Files/file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanoof.Alqadeh\Desktop\Adaa-master\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanoof.Alqadeh\Desktop\AdaaAutomation\Project\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F559EF1-EF55-4BD8-898D-ADA9EDC8EAD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A6AD17-A6E9-488C-953D-9F0E3582B5DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{C7413558-C116-4FE2-ADBD-685A6EC0F47F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C7413558-C116-4FE2-ADBD-685A6EC0F47F}"/>
   </bookViews>
   <sheets>
     <sheet name="Quick Help" sheetId="2" r:id="rId1"/>
@@ -35,6 +35,9 @@
     <sheet name="set_status_In progress" sheetId="25" r:id="rId20"/>
     <sheet name="board_set_status_neg" sheetId="21" r:id="rId21"/>
     <sheet name="ratio" sheetId="8" r:id="rId22"/>
+    <sheet name="members" sheetId="27" r:id="rId23"/>
+    <sheet name="csv" sheetId="28" r:id="rId24"/>
+    <sheet name="my profile" sheetId="29" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -516,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="282">
   <si>
     <t xml:space="preserve">QUICK  HELP  </t>
   </si>
@@ -1040,9 +1043,6 @@
     <t xml:space="preserve"> name</t>
   </si>
   <si>
-    <t>arabic only</t>
-  </si>
-  <si>
     <t>toast msg</t>
   </si>
   <si>
@@ -1334,7 +1334,37 @@
     <t>new board status</t>
   </si>
   <si>
-    <t>board_new</t>
+    <t>name_defined</t>
+  </si>
+  <si>
+    <t>My Tasks</t>
+  </si>
+  <si>
+    <t>members</t>
+  </si>
+  <si>
+    <t>هدى العزة</t>
+  </si>
+  <si>
+    <t>add file</t>
+  </si>
+  <si>
+    <t>copy from</t>
+  </si>
+  <si>
+    <t>CSV File</t>
+  </si>
+  <si>
+    <t>my profile</t>
+  </si>
+  <si>
+    <t>change img</t>
+  </si>
+  <si>
+    <t>C:\Users\Hanoof.Alqadeh\Desktop\pics</t>
+  </si>
+  <si>
+    <t>png-clipart-public-domain-copyright-free-content-creative-commons-license-black-and-white-sad-face-trademark-smiley</t>
   </si>
 </sst>
 </file>
@@ -7865,6 +7895,630 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="2676525" y="74840"/>
+          <a:ext cx="928688" cy="598860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>830876</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>305623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1179635</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>706438</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7596C482-096F-4281-B3A3-D8AFD1EF7119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="830876" y="305623"/>
+          <a:ext cx="4508009" cy="400815"/>
+          <a:chOff x="2568871" y="335853"/>
+          <a:chExt cx="4602425" cy="440330"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Graphic 2" descr="Disconnected">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608330DE-7D21-4E0A-925A-11D60148EE58}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2568871" y="349155"/>
+            <a:ext cx="365069" cy="382077"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Graphic 3" descr="Blockchain">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2688AB12-5292-48F7-BE85-50BFAEA41E35}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4642984" y="335853"/>
+            <a:ext cx="419845" cy="435933"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Graphic 18" descr="Keyboard">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBED9512-4D45-4DDF-9AC1-0C3507BA4B4C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6751063" y="353271"/>
+            <a:ext cx="420233" cy="422912"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74840</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="928688" cy="598860"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35F8088-FDD9-4244-B837-28FA157B9795}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9921" r="15386" b="22500"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8191500" y="74840"/>
+          <a:ext cx="928688" cy="598860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>830876</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>305623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1179635</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>706438</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4E8845-FDA0-4E61-83BB-E7F98182511B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="830876" y="305623"/>
+          <a:ext cx="4508009" cy="400815"/>
+          <a:chOff x="2568871" y="335853"/>
+          <a:chExt cx="4602425" cy="440330"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Graphic 2" descr="Disconnected">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB03F2C3-55DC-45D0-A409-6D14932D52CE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2568871" y="349155"/>
+            <a:ext cx="365069" cy="382077"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Graphic 3" descr="Blockchain">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA9CA390-CFA3-46AA-A6BC-C54755E1F082}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4642984" y="335853"/>
+            <a:ext cx="419845" cy="435933"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Graphic 18" descr="Keyboard">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C8C4B7E-F928-48DF-AF1A-15239AB355EC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6751063" y="353271"/>
+            <a:ext cx="420233" cy="422912"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74840</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="928688" cy="598860"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E2E27E-489F-4272-943C-15B38B37CE50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9921" r="15386" b="22500"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8191500" y="74840"/>
+          <a:ext cx="928688" cy="598860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>830876</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>305623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1179635</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>706438</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A626B82-B8A1-4202-ACDC-40F4535D63B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="830876" y="305623"/>
+          <a:ext cx="4508009" cy="400815"/>
+          <a:chOff x="2568871" y="335853"/>
+          <a:chExt cx="4602425" cy="440330"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Graphic 2" descr="Disconnected">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176B6816-D637-4F55-9692-1ACCD43F8EDA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2568871" y="349155"/>
+            <a:ext cx="365069" cy="382077"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Graphic 3" descr="Blockchain">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E948C643-6063-4F64-A118-3C2249A47CC8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4642984" y="335853"/>
+            <a:ext cx="419845" cy="435933"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Graphic 18" descr="Keyboard">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{136B1407-2432-40F5-A6AD-7D01528CFB67}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6751063" y="353271"/>
+            <a:ext cx="420233" cy="422912"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74840</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="928688" cy="598860"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA26CB3-9AB6-4584-887F-B1F2A5AFD861}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9921" r="15386" b="22500"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8191500" y="74840"/>
           <a:ext cx="928688" cy="598860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12088,23 +12742,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -12125,7 +12779,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
@@ -12149,10 +12803,10 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="14"/>
@@ -12182,7 +12836,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13"/>
@@ -12208,7 +12862,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="15">
         <v>817451</v>
@@ -12237,7 +12891,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="15">
         <v>19</v>
@@ -12266,7 +12920,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="15">
         <v>12</v>
@@ -12292,7 +12946,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>49</v>
@@ -12316,10 +12970,10 @@
         <v>82</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="13"/>
@@ -12529,23 +13183,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -12566,7 +13220,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
@@ -12590,10 +13244,10 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="14"/>
@@ -12623,7 +13277,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13"/>
@@ -12649,7 +13303,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="15">
         <v>817451</v>
@@ -12678,7 +13332,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="15">
         <v>19</v>
@@ -12707,7 +13361,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="15">
         <v>12</v>
@@ -12739,7 +13393,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="13"/>
@@ -12762,7 +13416,7 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>49</v>
@@ -12786,10 +13440,10 @@
         <v>82</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="13"/>
@@ -12982,7 +13636,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12999,23 +13653,23 @@
   <sheetData>
     <row r="1" spans="1:21" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -13036,7 +13690,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -13066,7 +13720,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="13"/>
@@ -13089,10 +13743,10 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -13122,7 +13776,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="13"/>
@@ -13151,7 +13805,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="13"/>
@@ -13174,13 +13828,13 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" s="20">
         <v>44541</v>
@@ -13324,10 +13978,10 @@
         <v>31</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="13"/>
@@ -13350,7 +14004,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>55</v>
@@ -13383,7 +14037,7 @@
         <v>58</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="13"/>
@@ -13640,23 +14294,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -13677,16 +14331,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -13705,13 +14359,13 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="13"/>
@@ -13734,10 +14388,10 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
@@ -13761,13 +14415,13 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>150</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="13"/>
@@ -13793,10 +14447,10 @@
         <v>31</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13"/>
@@ -13819,10 +14473,10 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="14"/>
@@ -14056,23 +14710,23 @@
   <sheetData>
     <row r="1" spans="1:21" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -14093,7 +14747,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
@@ -14117,13 +14771,13 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="13"/>
@@ -14146,10 +14800,10 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -14173,13 +14827,13 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="13"/>
@@ -14202,10 +14856,10 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -14628,23 +15282,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -14665,16 +15319,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -14693,13 +15347,13 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="13"/>
@@ -14722,10 +15376,10 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
@@ -14749,13 +15403,13 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="13"/>
@@ -14778,13 +15432,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13"/>
@@ -14807,10 +15461,10 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="14"/>
@@ -14837,7 +15491,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="23">
         <v>0</v>
@@ -14866,10 +15520,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="13"/>
@@ -15056,23 +15710,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -15093,16 +15747,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -15121,13 +15775,13 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="13"/>
@@ -15150,13 +15804,13 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13"/>
@@ -15179,7 +15833,7 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -15368,23 +16022,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -15405,16 +16059,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -15433,13 +16087,13 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="13"/>
@@ -15462,13 +16116,13 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13"/>
@@ -15491,7 +16145,7 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -15680,23 +16334,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -15717,16 +16371,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -15745,13 +16399,13 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="13"/>
@@ -15774,13 +16428,13 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>241</v>
-      </c>
       <c r="C4" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13"/>
@@ -15803,7 +16457,7 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -15992,23 +16646,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -16029,16 +16683,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -16057,13 +16711,13 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="13"/>
@@ -16086,13 +16740,13 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13"/>
@@ -16115,13 +16769,13 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="13"/>
@@ -16282,7 +16936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBC386F-3373-4ECC-9E5D-0721EA2A44D9}">
   <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -16306,10 +16960,10 @@
     <row r="1" spans="1:24" ht="30.75" customHeight="1" thickBot="1">
       <c r="A1" s="25"/>
       <c r="B1" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>246</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>247</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="13"/>
@@ -16336,10 +16990,10 @@
     <row r="2" spans="1:24" ht="60" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>248</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>249</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="13"/>
@@ -16366,10 +17020,10 @@
     <row r="3" spans="1:24" ht="64.5" customHeight="1">
       <c r="A3" s="25"/>
       <c r="B3" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="13"/>
@@ -16396,10 +17050,10 @@
     <row r="4" spans="1:24" ht="61.5" customHeight="1">
       <c r="A4" s="25"/>
       <c r="B4" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>251</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>252</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="13"/>
@@ -16424,10 +17078,10 @@
     <row r="5" spans="1:24" ht="62.25" customHeight="1">
       <c r="A5" s="25"/>
       <c r="B5" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>253</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>254</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="13"/>
@@ -16453,10 +17107,10 @@
     <row r="6" spans="1:24" ht="47.25" customHeight="1">
       <c r="A6" s="25"/>
       <c r="B6" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>255</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>256</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="13"/>
@@ -16483,10 +17137,10 @@
     <row r="7" spans="1:24" ht="42.75" customHeight="1">
       <c r="A7" s="25"/>
       <c r="B7" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="13"/>
@@ -16513,10 +17167,10 @@
     <row r="8" spans="1:24" ht="48" customHeight="1">
       <c r="A8" s="25"/>
       <c r="B8" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>258</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>259</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="13"/>
@@ -17029,7 +17683,7 @@
     <row r="28" spans="1:24">
       <c r="A28" s="13"/>
       <c r="B28" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -17057,7 +17711,7 @@
     <row r="29" spans="1:24">
       <c r="A29" s="13"/>
       <c r="B29" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -17085,7 +17739,7 @@
     <row r="30" spans="1:24">
       <c r="A30" s="13"/>
       <c r="B30" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -17539,59 +18193,59 @@
     </row>
     <row r="62" spans="2:10">
       <c r="B62" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D62" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64" t="s">
         <v>264</v>
-      </c>
-      <c r="C64" t="s">
-        <v>249</v>
-      </c>
-      <c r="D64" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C65" t="s">
         <v>266</v>
-      </c>
-      <c r="C65" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="66" spans="2:5">
       <c r="C66" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E66" s="37"/>
     </row>
     <row r="67" spans="2:5">
       <c r="C67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -17640,23 +18294,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -17677,16 +18331,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -17705,13 +18359,13 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="13"/>
@@ -17734,13 +18388,13 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>244</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>245</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13"/>
@@ -17763,7 +18417,7 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -17949,23 +18603,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -17986,16 +18640,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -18014,13 +18668,13 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="13"/>
@@ -18043,13 +18697,13 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="C4" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13"/>
@@ -18072,13 +18726,13 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="13"/>
@@ -18262,23 +18916,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -18296,19 +18950,19 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -18327,13 +18981,13 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="13"/>
@@ -18362,7 +19016,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="13"/>
@@ -18391,7 +19045,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="13"/>
@@ -18691,16 +19345,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411B8E72-E6AC-49AE-9E71-C788A322DB63}">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0091CCD0-4C32-4610-98C5-CA50C72FDABD}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18717,23 +19371,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -18754,7 +19408,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
@@ -18778,12 +19432,14 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="15" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="15"/>
+        <v>273</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>274</v>
+      </c>
       <c r="D3" s="14"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -18804,12 +19460,8 @@
       <c r="U3" s="13"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>61</v>
-      </c>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
       <c r="E4" s="13"/>
@@ -18831,15 +19483,9 @@
       <c r="U4" s="13"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="15">
-        <v>817451</v>
-      </c>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="14"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -18860,15 +19506,9 @@
       <c r="U5" s="13"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="15">
-        <v>19</v>
-      </c>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="14"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -18889,15 +19529,9 @@
       <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="15">
-        <v>12</v>
-      </c>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="14"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -18918,15 +19552,9 @@
       <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="C8" s="15">
-        <v>1</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="14"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -18947,15 +19575,9 @@
       <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>179</v>
-      </c>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="14"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -18976,18 +19598,10 @@
       <c r="U9" s="13"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>177</v>
-      </c>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -19007,12 +19621,8 @@
       <c r="U10" s="13"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="14"/>
       <c r="E11" s="13"/>
@@ -19028,15 +19638,9 @@
       <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>174</v>
-      </c>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="14"/>
       <c r="E12" s="13"/>
       <c r="H12" s="13"/>
@@ -19219,16 +19823,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6305D327-77F5-4DEA-A555-6D351C363AF8}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDEA748-0F1E-4F16-8C5D-DDA559010531}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19245,23 +19849,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -19282,7 +19886,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
@@ -19306,10 +19910,10 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="14"/>
@@ -19333,13 +19937,13 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="15" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>61</v>
+        <v>276</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13"/>
@@ -19362,14 +19966,12 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="15" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="15">
-        <v>817451</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="C5" s="15"/>
       <c r="D5" s="14"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -19390,15 +19992,9 @@
       <c r="U5" s="13"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="15">
-        <v>19</v>
-      </c>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="14"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -19419,15 +20015,9 @@
       <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="15">
-        <v>12</v>
-      </c>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="14"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -19448,15 +20038,9 @@
       <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>179</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="14"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -19477,18 +20061,10 @@
       <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>177</v>
-      </c>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -19508,12 +20084,8 @@
       <c r="U9" s="13"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="14"/>
       <c r="E10" s="13"/>
@@ -19527,16 +20099,1544 @@
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC715DD7-3FF9-4203-8DB1-46DBE577210D}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:V19"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="7" max="7" width="43.5703125" customWidth="1"/>
+    <col min="8" max="8" width="47.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="61.5" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411B8E72-E6AC-49AE-9E71-C788A322DB63}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:V19"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="7" max="7" width="43.5703125" customWidth="1"/>
+    <col min="8" max="8" width="47.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="61.5" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="15">
+        <v>8171</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="15">
+        <v>19</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6305D327-77F5-4DEA-A555-6D351C363AF8}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:V18"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="7" max="7" width="43.5703125" customWidth="1"/>
+    <col min="8" max="8" width="47.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="61.5" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="15">
+        <v>817451</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="15">
+        <v>19</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="15">
+        <v>12</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="13"/>
@@ -19746,23 +21846,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -19783,7 +21883,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
@@ -19807,10 +21907,10 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="14"/>
@@ -19837,7 +21937,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="15">
         <v>817451</v>
@@ -19866,7 +21966,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="15">
         <v>19</v>
@@ -19895,7 +21995,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="15">
         <v>12</v>
@@ -19927,7 +22027,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="13"/>
@@ -19956,10 +22056,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -19981,7 +22081,7 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>49</v>
@@ -20005,10 +22105,10 @@
         <v>82</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="13"/>
@@ -20218,23 +22318,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -20255,7 +22355,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
@@ -20279,10 +22379,10 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="14"/>
@@ -20312,7 +22412,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13"/>
@@ -20338,7 +22438,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="15">
         <v>19</v>
@@ -20367,7 +22467,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="15">
         <v>12</v>
@@ -20399,7 +22499,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="13"/>
@@ -20428,10 +22528,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -20453,7 +22553,7 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>49</v>
@@ -20477,10 +22577,10 @@
         <v>82</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="13"/>
@@ -20690,23 +22790,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -20727,7 +22827,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
@@ -20751,10 +22851,10 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="14"/>
@@ -20784,7 +22884,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13"/>
@@ -20810,7 +22910,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="15">
         <v>817451</v>
@@ -20839,7 +22939,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="15">
         <v>19</v>
@@ -20868,7 +22968,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="15">
         <v>12</v>
@@ -20900,7 +23000,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="13"/>
@@ -20929,10 +23029,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -20954,7 +23054,7 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>49</v>
@@ -20978,10 +23078,10 @@
         <v>82</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="13"/>
@@ -21191,23 +23291,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -21228,7 +23328,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
@@ -21252,10 +23352,10 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="14"/>
@@ -21285,7 +23385,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13"/>
@@ -21311,7 +23411,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="15">
         <v>817451</v>
@@ -21343,7 +23443,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13"/>
@@ -21372,10 +23472,10 @@
         <v>24</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -21397,7 +23497,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>49</v>
@@ -21421,10 +23521,10 @@
         <v>82</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="13"/>
@@ -21634,23 +23734,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="61.5" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -21671,7 +23771,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="14"/>
@@ -21695,10 +23795,10 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="14"/>
@@ -21728,7 +23828,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="13"/>
@@ -21754,7 +23854,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="15">
         <v>817451</v>
@@ -21783,7 +23883,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="15">
         <v>19</v>
@@ -21815,7 +23915,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="13"/>
@@ -21844,10 +23944,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -21869,7 +23969,7 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>49</v>
@@ -21893,10 +23993,10 @@
         <v>82</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="13"/>
@@ -22081,21 +24181,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD22F247C7132A4F95FA6AD3A94E8DBC" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="523fa9f0ae97c855b8d58c20a869badd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e3a2e920-b7fe-491f-be1c-6dbe02d4ece5" xmlns:ns3="bb2975ad-5b53-450f-bf40-0afef718ca92" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="45c28b72f87d0bcfbe38a429f8c977ca" ns2:_="" ns3:_="">
     <xsd:import namespace="e3a2e920-b7fe-491f-be1c-6dbe02d4ece5"/>
@@ -22306,15 +24397,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{911F2271-B51A-486A-972C-1E473009A185}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2BCDBAC-CE3D-41E1-AD83-1089E323A8DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -22331,7 +24423,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23FAC215-B06D-4913-9F00-4BECB14932CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22348,4 +24440,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{911F2271-B51A-486A-972C-1E473009A185}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>